--- a/fitness_data.xlsx
+++ b/fitness_data.xlsx
@@ -1,74 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Desktop/Weight_Lifting_Tracker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B72CE5A-98E3-EC44-A1DF-0C7860628365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="diet" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="diet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="weight" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lift" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Calories</t>
-  </si>
-  <si>
-    <t>Carbs</t>
-  </si>
-  <si>
-    <t>Fats</t>
-  </si>
-  <si>
-    <t>Proteins</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,31 +75,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -403,18 +412,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Proteins</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>432</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -422,45 +500,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Body Fat</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Lift Yesterday</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Run Yesterday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>323.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>323.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>87.6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>554.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>888.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>123</v>
+      </c>
+      <c r="E7" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F224"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Routine</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Deadlift</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deadlift</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>135</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>104</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>104</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>104</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>93</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>93</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>93</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="n"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="n"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="n"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="n"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="n"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="n"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="n"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="n"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="n"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="n"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.83203125" customWidth="1" style="5" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Miles</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>44201</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.03162037037037037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>12:12:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fitness_data.xlsx
+++ b/fitness_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="diet" sheetId="1" state="visible" r:id="rId1"/>
@@ -419,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -456,40 +456,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>44201</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>2222</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>432</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C3" t="n">
-        <v>123</v>
-      </c>
-      <c r="D3" t="n">
-        <v>123</v>
-      </c>
-      <c r="E3" t="n">
-        <v>123</v>
-      </c>
+      <c r="A3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n"/>
@@ -505,10 +491,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -545,119 +531,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>44201</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>236</v>
+        <v>12.3</v>
       </c>
       <c r="C2" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>323.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>323.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>87.6</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>554.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>888.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1232</v>
-      </c>
-      <c r="C7" t="n">
-        <v>123</v>
-      </c>
-      <c r="D7" t="n">
-        <v>123</v>
-      </c>
-      <c r="E7" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>y</t>
+        <v>234.3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>n</t>
         </is>
       </c>
     </row>
@@ -676,7 +568,7 @@
   <dimension ref="A1:F224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -716,7 +608,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -730,21 +622,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -758,21 +648,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -786,21 +674,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -814,21 +700,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,21 +726,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -870,21 +752,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -898,21 +778,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -926,21 +804,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F9" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -959,16 +835,14 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -987,16 +861,14 @@
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1015,16 +887,14 @@
       <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1043,16 +913,14 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F13" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1071,16 +939,14 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F14" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1099,16 +965,14 @@
       <c r="E15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1127,16 +991,14 @@
       <c r="E16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1149,24 +1011,20 @@
           <t>Hammer_Curl</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="D17" t="n">
+        <v>15</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F17" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1179,24 +1037,20 @@
           <t>Hammer_Curl</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="D18" t="n">
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1209,24 +1063,20 @@
           <t>Hammer_Curl</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="D19" t="n">
+        <v>15</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1239,76 +1089,509 @@
           <t>Hammer_Curl</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="D20" t="n">
+        <v>15</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Deadlift</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>115</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Deadlift</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>115</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Lat_Pulldown</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n"/>
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>88</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n"/>
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cable_Row</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>88</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n"/>
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n"/>
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rear_Delt_Lateral_Raise</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Preacher_Curls</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n"/>
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>15</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n"/>
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n"/>
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n"/>
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pull_1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hammer_Curl</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
@@ -1877,10 +2160,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1906,28 +2189,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>44201</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.03162037037037037</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021-01-06</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>12:12:12</t>
+        <v>26.2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>04:43:12</t>
         </is>
       </c>
     </row>
